--- a/Functional_Testing.xlsx
+++ b/Functional_Testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pentagonspace_elite_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elite_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFF18F3-15D9-4441-86D2-3BDAC52CCA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE46632-8E77-4516-BF86-5A921502EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A40A110-2947-43F0-B729-8D44F5F4C2F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Test Steps</t>
   </si>
@@ -56,304 +56,80 @@
     <t>Step</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/</t>
-  </si>
-  <si>
-    <t>The home page of the School Management System must be dispalyed</t>
-  </si>
-  <si>
-    <t>Admin Login Panel page must be displayed</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" link in the nav bar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sign Up</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>Add New Admin To School page should be displayed</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>First Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" text box and enter the First name</t>
-    </r>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Last Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" text box and enter the Last name</t>
-    </r>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" text box and enter the User name</t>
-    </r>
-  </si>
-  <si>
-    <t>mohan</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assword</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" text box and enter the Password</t>
-    </r>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>The password text must not be visible</t>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Submit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>The page must be redirected to the Admin Login page</t>
-  </si>
-  <si>
-    <r>
-      <t>Enter the user name in the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" text box</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enter the password in the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" text box</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>The page must be redirected to the Admin Dashboard page</t>
+    <t>https://www.irctc.co.in/</t>
+  </si>
+  <si>
+    <t>The home page must be displayed</t>
+  </si>
+  <si>
+    <t>Click on "Register" link</t>
+  </si>
+  <si>
+    <t>The user signup page must be displayed</t>
+  </si>
+  <si>
+    <t>Enter the username in the username text box. [the username must be between 3 and 35 characters]</t>
+  </si>
+  <si>
+    <t>MuthuViswanath</t>
+  </si>
+  <si>
+    <t>It shoould accept the username if it is not already taken</t>
+  </si>
+  <si>
+    <t>Enter the full name in the Full name text box.</t>
+  </si>
+  <si>
+    <t>Muthu</t>
+  </si>
+  <si>
+    <t>It shoould accept the name given</t>
+  </si>
+  <si>
+    <t>Enter the password in the password text box. [Minimum 8 to maximum 15 characters allowed.Password must contain at least one small &amp; one capital alphabet and numeric digit.]</t>
+  </si>
+  <si>
+    <t>Pdntspa0</t>
+  </si>
+  <si>
+    <t>It should accept the password</t>
+  </si>
+  <si>
+    <t>Enter the password in the confirm password text box. [Minimum 8 to maximum 15 characters allowed.Password must contain at least one small &amp; one capital alphabet and numeric digit.]</t>
+  </si>
+  <si>
+    <t>It should accept the password if it matches the actual password</t>
+  </si>
+  <si>
+    <t>Enter the email in the emailid text box. [Min 10 character &amp; Max 70 character.]</t>
+  </si>
+  <si>
+    <t>muthu@pentagonspace.in</t>
+  </si>
+  <si>
+    <t>It should accept If the email is valid or not already exist.</t>
+  </si>
+  <si>
+    <t>Enter the mobile number in the mobile number text box</t>
+  </si>
+  <si>
+    <t>It should accept the number if the number is valid and doesn't already linked</t>
+  </si>
+  <si>
+    <t>Enter the captcha Text in the Captcha TextBox</t>
+  </si>
+  <si>
+    <t>If the captcha text matches the generated text, then it should be accepted</t>
+  </si>
+  <si>
+    <t>Click on "Submit" button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,14 +148,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -756,17 +524,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17082F3A-9D05-4877-B693-07AC12879318}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="4" customWidth="1"/>
     <col min="5" max="5" width="52.88671875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -789,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="77.400000000000006" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -808,21 +576,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:5" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
@@ -830,32 +601,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="129" x14ac:dyDescent="0.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="154.80000000000001" x14ac:dyDescent="0.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
@@ -863,62 +643,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9535355445</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51.6" x14ac:dyDescent="0.5">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8CB8E3DF-48C0-4029-B4E5-6474AA8AEADB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0BF9552D-6C91-4223-A839-1598D3383A7B}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{3E2CB0A0-9C1B-4C9E-9F02-E907B0EB4260}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
